--- a/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2280,7 +2280,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.668272</v>
+        <v>21.049072</v>
       </c>
       <c r="F2" t="n">
         <v>0.342144</v>
@@ -2314,7 +2314,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.164672</v>
+        <v>3.92256</v>
       </c>
       <c r="F3" t="n">
         <v>0.335664</v>
@@ -2348,7 +2348,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9362</v>
+        <v>1.63684</v>
       </c>
       <c r="F4" t="n">
         <v>0.336064</v>
@@ -2382,7 +2382,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.39536</v>
+        <v>2.57868</v>
       </c>
       <c r="F5" t="n">
         <v>0.334288</v>
@@ -2416,7 +2416,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.968816</v>
+        <v>1.729112</v>
       </c>
       <c r="F6" t="n">
         <v>0.327968</v>
@@ -2450,7 +2450,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.28944</v>
+        <v>0.5209919999999999</v>
       </c>
       <c r="F7" t="n">
         <v>0.328704</v>
@@ -2484,7 +2484,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08870400000000001</v>
+        <v>0.164736</v>
       </c>
       <c r="F8" t="n">
         <v>0.327296</v>
@@ -2512,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8635200000000001</v>
+        <v>1.55228</v>
       </c>
       <c r="F9" t="n">
         <v>0.346256</v>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.516672</v>
+        <v>0.9331200000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.3456</v>
@@ -2580,13 +2580,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75432</v>
+        <v>1.36248</v>
       </c>
       <c r="F11" t="n">
         <v>0.343824</v>
@@ -2614,13 +2614,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.202784</v>
+        <v>2.222792</v>
       </c>
       <c r="F12" t="n">
         <v>0.3460800000000001</v>
@@ -2648,13 +2648,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.54791999999999</v>
+        <v>22.63591999999998</v>
       </c>
       <c r="F13" t="n">
         <v>0.327712</v>
@@ -2682,13 +2682,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1195</v>
+        <v>1204</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.829984000000001</v>
+        <v>8.752320000000003</v>
       </c>
       <c r="F14" t="n">
         <v>0.3284</v>
@@ -2716,13 +2716,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.91388</v>
+        <v>1.597816</v>
       </c>
       <c r="F15" t="n">
         <v>0.323984</v>
@@ -2750,13 +2750,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.858432</v>
+        <v>1.586416</v>
       </c>
       <c r="F16" t="n">
         <v>0.320608</v>
@@ -2784,13 +2784,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.41336</v>
+        <v>2.52252</v>
       </c>
       <c r="F17" t="n">
         <v>0.321552</v>
@@ -2818,13 +2818,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4536</v>
+        <v>0.81648</v>
       </c>
       <c r="F18" t="n">
         <v>0.322272</v>
@@ -2852,13 +2852,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.122752</v>
+        <v>0.227968</v>
       </c>
       <c r="F19" t="n">
         <v>0.32096</v>
@@ -2892,7 +2892,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.95168000000001</v>
+        <v>113.57392</v>
       </c>
       <c r="F20" t="n">
         <v>0.04208000000000001</v>
@@ -2926,7 +2926,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.829312</v>
+        <v>120.569728</v>
       </c>
       <c r="F21" t="n">
         <v>0.044672</v>
@@ -2960,7 +2960,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.72281600000001</v>
+        <v>149.243904</v>
       </c>
       <c r="F22" t="n">
         <v>0.055296</v>
@@ -2994,7 +2994,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.535424</v>
+        <v>459.2186560000001</v>
       </c>
       <c r="F23" t="n">
         <v>0.170144</v>
@@ -3023,7 +3023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3151,34 +3151,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D2" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G2" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J2" t="n">
         <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="L2" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3222,34 +3222,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="D3" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G3" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J3" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="L3" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3293,34 +3293,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D4" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G4" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="L4" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
         <v>151</v>
@@ -3373,25 +3373,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I5" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J5" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="L5" t="n">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3435,34 +3435,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D6" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>297</v>
+      </c>
+      <c r="G6" t="n">
+        <v>94</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>419</v>
+      </c>
+      <c r="J6" t="n">
         <v>304</v>
       </c>
-      <c r="G6" t="n">
-        <v>80</v>
-      </c>
-      <c r="H6" t="n">
-        <v>24</v>
-      </c>
-      <c r="I6" t="n">
-        <v>418</v>
-      </c>
-      <c r="J6" t="n">
-        <v>292</v>
-      </c>
       <c r="K6" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L6" t="n">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3495,6 +3495,290 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>591</v>
+      </c>
+      <c r="D7" t="n">
+        <v>156</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>303</v>
+      </c>
+      <c r="G7" t="n">
+        <v>90</v>
+      </c>
+      <c r="H7" t="n">
+        <v>38</v>
+      </c>
+      <c r="I7" t="n">
+        <v>423</v>
+      </c>
+      <c r="J7" t="n">
+        <v>300</v>
+      </c>
+      <c r="K7" t="n">
+        <v>908</v>
+      </c>
+      <c r="L7" t="n">
+        <v>210</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>611</v>
+      </c>
+      <c r="D8" t="n">
+        <v>156</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>293</v>
+      </c>
+      <c r="G8" t="n">
+        <v>88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23</v>
+      </c>
+      <c r="I8" t="n">
+        <v>419</v>
+      </c>
+      <c r="J8" t="n">
+        <v>299</v>
+      </c>
+      <c r="K8" t="n">
+        <v>894</v>
+      </c>
+      <c r="L8" t="n">
+        <v>201</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>599</v>
+      </c>
+      <c r="D9" t="n">
+        <v>150</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>294</v>
+      </c>
+      <c r="G9" t="n">
+        <v>92</v>
+      </c>
+      <c r="H9" t="n">
+        <v>37</v>
+      </c>
+      <c r="I9" t="n">
+        <v>422</v>
+      </c>
+      <c r="J9" t="n">
+        <v>301</v>
+      </c>
+      <c r="K9" t="n">
+        <v>905</v>
+      </c>
+      <c r="L9" t="n">
+        <v>213</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>600</v>
+      </c>
+      <c r="D10" t="n">
+        <v>144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>302</v>
+      </c>
+      <c r="G10" t="n">
+        <v>77</v>
+      </c>
+      <c r="H10" t="n">
+        <v>22</v>
+      </c>
+      <c r="I10" t="n">
+        <v>419</v>
+      </c>
+      <c r="J10" t="n">
+        <v>301</v>
+      </c>
+      <c r="K10" t="n">
+        <v>899</v>
+      </c>
+      <c r="L10" t="n">
+        <v>216</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3509,7 +3793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3637,34 +3921,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74.875</v>
+        <v>74.125</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5</v>
+        <v>19.25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.5</v>
+        <v>38.375</v>
       </c>
       <c r="G2" t="n">
-        <v>11.875</v>
+        <v>11.625</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>53</v>
+        <v>52.375</v>
       </c>
       <c r="J2" t="n">
         <v>37.5</v>
       </c>
       <c r="K2" t="n">
-        <v>111.125</v>
+        <v>113.25</v>
       </c>
       <c r="L2" t="n">
-        <v>25.875</v>
+        <v>27</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3708,34 +3992,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>110.625</v>
+        <v>113.25</v>
       </c>
       <c r="D3" t="n">
-        <v>27.75</v>
+        <v>27.1875</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>57.1875</v>
+        <v>56.625</v>
       </c>
       <c r="G3" t="n">
-        <v>15.75</v>
+        <v>17.0625</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9375</v>
+        <v>5.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>78</v>
+        <v>78.1875</v>
       </c>
       <c r="J3" t="n">
-        <v>56.8125</v>
+        <v>56.0625</v>
       </c>
       <c r="K3" t="n">
-        <v>168.9375</v>
+        <v>167.25</v>
       </c>
       <c r="L3" t="n">
-        <v>38.4375</v>
+        <v>38.25</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3779,34 +4063,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>129.71875</v>
+        <v>129.9375</v>
       </c>
       <c r="D4" t="n">
-        <v>32.59375</v>
+        <v>33.6875</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>65.1875</v>
+        <v>64.75</v>
       </c>
       <c r="G4" t="n">
-        <v>20.5625</v>
+        <v>19.03125</v>
       </c>
       <c r="H4" t="n">
-        <v>6.34375</v>
+        <v>5.90625</v>
       </c>
       <c r="I4" t="n">
-        <v>92.3125</v>
+        <v>91</v>
       </c>
       <c r="J4" t="n">
-        <v>66.5</v>
+        <v>64.53125</v>
       </c>
       <c r="K4" t="n">
-        <v>197.3125</v>
+        <v>198.40625</v>
       </c>
       <c r="L4" t="n">
-        <v>44.625</v>
+        <v>44.1875</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3850,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>141.09375</v>
+        <v>142.96875</v>
       </c>
       <c r="D5" t="n">
         <v>35.390625</v>
@@ -3859,25 +4143,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.78125</v>
+        <v>70.3125</v>
       </c>
       <c r="G5" t="n">
-        <v>22.265625</v>
+        <v>22.5</v>
       </c>
       <c r="H5" t="n">
-        <v>7.734375</v>
+        <v>6.09375</v>
       </c>
       <c r="I5" t="n">
-        <v>97.734375</v>
+        <v>97.96875</v>
       </c>
       <c r="J5" t="n">
-        <v>69.375</v>
+        <v>69.609375</v>
       </c>
       <c r="K5" t="n">
-        <v>210.234375</v>
+        <v>211.40625</v>
       </c>
       <c r="L5" t="n">
-        <v>46.171875</v>
+        <v>48.984375</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3921,34 +4205,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>144.34375</v>
+        <v>144.828125</v>
       </c>
       <c r="D6" t="n">
-        <v>38.75</v>
+        <v>34.875</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>71.9296875</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.765625</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.234375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>101.4765625</v>
+      </c>
+      <c r="J6" t="n">
         <v>73.625</v>
       </c>
-      <c r="G6" t="n">
-        <v>19.375</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.8125</v>
-      </c>
-      <c r="I6" t="n">
-        <v>101.234375</v>
-      </c>
-      <c r="J6" t="n">
-        <v>70.71875</v>
-      </c>
       <c r="K6" t="n">
-        <v>217.484375</v>
+        <v>217.2421875</v>
       </c>
       <c r="L6" t="n">
-        <v>49.40625</v>
+        <v>51.1015625</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3981,6 +4265,290 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>145.44140625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.390625</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>74.56640625</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22.1484375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.3515625</v>
+      </c>
+      <c r="I7" t="n">
+        <v>104.09765625</v>
+      </c>
+      <c r="J7" t="n">
+        <v>73.828125</v>
+      </c>
+      <c r="K7" t="n">
+        <v>223.453125</v>
+      </c>
+      <c r="L7" t="n">
+        <v>51.6796875</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>151.556640625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38.6953125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>72.677734375</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.828125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.705078125</v>
+      </c>
+      <c r="I8" t="n">
+        <v>103.931640625</v>
+      </c>
+      <c r="J8" t="n">
+        <v>74.166015625</v>
+      </c>
+      <c r="K8" t="n">
+        <v>221.75390625</v>
+      </c>
+      <c r="L8" t="n">
+        <v>49.857421875</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>149.1650390625</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37.353515625</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>73.212890625</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22.91015625</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.2138671875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>105.087890625</v>
+      </c>
+      <c r="J9" t="n">
+        <v>74.9560546875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>225.3662109375</v>
+      </c>
+      <c r="L9" t="n">
+        <v>53.0419921875</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>149.70703125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35.9296875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>75.3525390625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.21240234375</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.4892578125</v>
+      </c>
+      <c r="I10" t="n">
+        <v>104.54541015625</v>
+      </c>
+      <c r="J10" t="n">
+        <v>75.10302734375</v>
+      </c>
+      <c r="K10" t="n">
+        <v>224.31103515625</v>
+      </c>
+      <c r="L10" t="n">
+        <v>53.89453125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4013,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20132</v>
+        <v>32940</v>
       </c>
     </row>
     <row r="3">
@@ -4021,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>209440</v>
+        <v>53980</v>
       </c>
     </row>
     <row r="4">
@@ -4029,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>209440</v>
+        <v>53980</v>
       </c>
     </row>
     <row r="5">
@@ -4037,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1974720</v>
+        <v>215920</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4102,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4121,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4140,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4159,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4178,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4197,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4213,7 +4781,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4232,7 +4800,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -4251,7 +4819,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -4270,7 +4838,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -4295,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -4314,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4333,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -4352,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -4371,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -4390,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4409,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -4431,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4450,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -4469,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -4488,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
